--- a/experimental_data/GEC/Swift1978.xlsx
+++ b/experimental_data/GEC/Swift1978.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="165" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="165" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Swift1978 – Antipyrene.disposition.and.liver.size</t>
   </si>
@@ -47,6 +47,9 @@
     <t>study</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>swi1978</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
@@ -117,6 +123,9 @@
   </si>
   <si>
     <t>elderly normal</t>
+  </si>
+  <si>
+    <t>hospitalized</t>
   </si>
   <si>
     <t>elderly hospitalised</t>
@@ -127,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -192,7 +201,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -201,71 +210,71 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -331,23 +340,23 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>591120</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627840</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPr id="0" name="Graphics 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -358,8 +367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11344680" y="1237680"/>
-          <a:ext cx="6569640" cy="5051880"/>
+          <a:off x="3253680" y="3200040"/>
+          <a:ext cx="6569280" cy="5051520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -379,10 +388,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -391,14 +400,14 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -406,7 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -414,12 +423,12 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -427,11 +436,11 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.25" outlineLevel="0" r="8">
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -439,7 +448,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="71.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -450,10 +459,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
@@ -479,8 +488,11 @@
       <c r="M9" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="10">
+      <c r="N9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -491,10 +503,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>22</v>
@@ -520,139 +532,151 @@
       <c r="M10" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="N10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">0.5*(G11+H11)</f>
+        <v>24.5</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>67</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1303</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">0.5*(F11+G11)</f>
-        <v>24.5</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>67</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1303</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>289</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">0.5*(G12+H12)</f>
+        <v>80.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>86</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>990</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">0.5*(G13+H13)</f>
+        <v>79.5</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <v>89</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">0.5*(F12+G12)</f>
-        <v>80.5</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>86</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <v>58</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>990</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>166</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">0.5*(F13+G13)</f>
-        <v>79.5</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>89</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>56</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>838</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>15.6</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.25" outlineLevel="0" r="14"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19"/>
+    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:B8"/>
@@ -660,7 +684,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
